--- a/biology/Botanique/Diospyros_ebenum/Diospyros_ebenum.xlsx
+++ b/biology/Botanique/Diospyros_ebenum/Diospyros_ebenum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diospyros ebenum est une espèce de plantes à fleurs de la famille des Ebenaceae. C'est un arbre présent dans le sud de l’Inde, au Sri Lanka et en Indonésie.
 La variété Diospyros ebenum var. acuminata provient du nord des Célèbes, en Indonésie.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre de taille moyenne à haute, au feuillage sempervirent pousse très lentement jusqu'à 20-25 mètres de hauteur. Les feuilles sont entières et ont une forme ovale allongée, d'environ 6-15 centimètres de long et de 3-5 centimètres de large. Le fruit n'est pas très grand, d'environ 2 centimètres de diamètre et ressemble à de petits fruits de kaki. 
 L'aubier est gris jaunâtre clair. Le bois de cœur est noir brillant avec des fibres claires occasionnelles. Ce bois à l'aspect brillant métallique a également une texture fine et lisse. Le bois est droit, au grain parfois anarchique et ondé. La densité du bois sec est d'environ 1190 kg / m3.
@@ -545,9 +559,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (10 avril 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (10 avril 2019) :
 variété Diospyros ebenum var. acuminata Haines</t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Physiographiska Sälskapets Handlingar 1: 176. 1776.</t>
         </is>
